--- a/ia-previsao-usuario/excel/resultados.xlsx
+++ b/ia-previsao-usuario/excel/resultados.xlsx
@@ -7,32 +7,63 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sem SMOTE" sheetId="1" r:id="rId1"/>
-    <sheet name="Com SMOTE" sheetId="2" r:id="rId2"/>
+    <sheet name="Sem Hiperparametros" sheetId="1" r:id="rId1"/>
+    <sheet name="Sem SMOTE" sheetId="2" r:id="rId2"/>
+    <sheet name="Com SMOTE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>accuracy</t>
   </si>
   <si>
+    <t>report_df</t>
+  </si>
+  <si>
+    <t>best_params</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>K-Nearest Neighbors</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+0              0.250000  0.285714  0.266667   7.00000
+1              0.761905  0.727273  0.744186  22.00000
+accuracy       0.620690  0.620690  0.620690   0.62069
+macro avg      0.505952  0.506494  0.505426  29.00000
+weighted avg   0.638342  0.620690  0.628923  29.00000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score    support
+0              0.000000  0.000000  0.000000   7.000000
+1              0.758621  1.000000  0.862745  22.000000
+accuracy       0.758621  0.758621  0.758621   0.758621
+macro avg      0.379310  0.500000  0.431373  29.000000
+weighted avg   0.575505  0.758621  0.654496  29.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score    support
+0              0.571429  0.571429  0.571429   7.000000
+1              0.863636  0.863636  0.863636  22.000000
+accuracy       0.793103  0.793103  0.793103   0.793103
+macro avg      0.717532  0.717532  0.717532  29.000000
+weighted avg   0.793103  0.793103  0.793103  29.000000</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>report</t>
-  </si>
-  <si>
-    <t>best_params</t>
-  </si>
-  <si>
-    <t>Decision Tree</t>
-  </si>
-  <si>
-    <t>K-Nearest Neighbors</t>
-  </si>
-  <si>
-    <t>Naive Bayes</t>
   </si>
   <si>
     <t xml:space="preserve">              precision    recall  f1-score   support
@@ -59,24 +90,12 @@
     <t>{'n_neighbors': 1, 'weights': 'uniform'}</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.26      0.71      0.38         7
-           1       0.80      0.36      0.50        22
-    accuracy                           0.45        29
-   macro avg       0.53      0.54      0.44        29
-weighted avg       0.67      0.45      0.47        29
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              precision    recall  f1-score   support
-           0       0.14      0.14      0.14         7
-           1       0.73      0.73      0.73        22
-    accuracy                           0.59        29
-   macro avg       0.44      0.44      0.44        29
-weighted avg       0.59      0.59      0.59        29
+           0       0.20      0.29      0.24         7
+           1       0.74      0.64      0.68        22
+    accuracy                           0.55        29
+   macro avg       0.47      0.46      0.46        29
+weighted avg       0.61      0.55      0.57        29
 </t>
   </si>
   <si>
@@ -89,10 +108,7 @@
 </t>
   </si>
   <si>
-    <t>{'criterion': 'entropy', 'max_depth': 8, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2, 'splitter': 'random'}</t>
-  </si>
-  <si>
-    <t>{'weights': 'distance'}</t>
+    <t>{'criterion': 'entropy', 'max_depth': None, 'max_features': 'sqrt', 'min_samples_leaf': 1, 'min_samples_split': 2, 'splitter': 'random'}</t>
   </si>
 </sst>
 </file>
@@ -472,13 +488,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.6551724137931034</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -486,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -503,10 +519,10 @@
         <v>0.7931034482758621</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -538,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.4482758620689655</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -552,13 +568,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5862068965517241</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -566,13 +582,79 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>0.6551724137931034</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
